--- a/111/数据.xlsx
+++ b/111/数据.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21255" windowHeight="10875"/>
+    <workbookView windowWidth="21251" windowHeight="10871"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="12" r:id="rId1"/>
     <sheet name="config" sheetId="13" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>序号</t>
   </si>
@@ -30,6 +30,80 @@
   </si>
   <si>
     <t>月数(分段情况下填写)</t>
+  </si>
+  <si>
+    <t>沙河还建小区</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2011/11/3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>老澴河岸坡防护</t>
+  </si>
+  <si>
+    <t>长征南路及玉泉南路市政工程</t>
+  </si>
+  <si>
+    <t>给水工程</t>
+  </si>
+  <si>
+    <t>沙沟新社区服务中心</t>
+  </si>
+  <si>
+    <t>沙沟还建小区基坑土方</t>
+  </si>
+  <si>
+    <t>沙沟还建小区GF4#楼28</t>
+  </si>
+  <si>
+    <t>沙沟还建房已建工程配套管网</t>
+  </si>
+  <si>
+    <t>联城还建小区基坑土方</t>
+  </si>
+  <si>
+    <t>沿北河市政配套工程</t>
+  </si>
+  <si>
+    <t>沙沟小区GF1#、2#、8#楼及地下室</t>
+  </si>
+  <si>
+    <t>沙沟小区GF3#楼及地下室工程</t>
+  </si>
+  <si>
+    <t>全洲保证金及征地费</t>
+  </si>
+  <si>
+    <t>5000万为保证金，2015年5月20日开始计息</t>
+  </si>
+  <si>
+    <t>全洲拆迁款</t>
+  </si>
+  <si>
+    <t>全洲退还</t>
+  </si>
+  <si>
+    <t>支付全洲</t>
+  </si>
+  <si>
+    <t>指挥部退款5800万</t>
   </si>
   <si>
     <t>日期</t>
@@ -57,7 +131,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,26 +156,156 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="黑体"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,8 +318,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -130,13 +528,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -164,11 +804,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -176,86 +816,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -272,7 +906,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -516,34 +1150,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.625" style="11"/>
-    <col min="3" max="3" width="10.75" style="11"/>
-    <col min="4" max="4" width="12.625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15.8796296296296" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.8888888888889" style="10"/>
+    <col min="4" max="4" width="12.6296296296296" style="11" customWidth="1"/>
     <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="12" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="12" customWidth="1"/>
+    <col min="10" max="10" width="13.3796296296296" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -552,147 +1189,4287 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="38.1" customHeight="1">
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
-        <v>8001234.5</v>
-      </c>
-      <c r="C2" s="13">
-        <v>40436</v>
-      </c>
-      <c r="D2" s="13">
-        <v>41927</v>
-      </c>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B2" s="13">
+        <v>1200000</v>
+      </c>
+      <c r="C2" s="14">
+        <v>40845</v>
+      </c>
+      <c r="D2" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
-        <v>9000000</v>
-      </c>
-      <c r="C3" s="13">
-        <v>40436</v>
-      </c>
-      <c r="D3" s="13">
-        <v>40436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" s="10" customFormat="1" ht="24" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:5" ht="33" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" ht="51.95" customHeight="1">
-      <c r="A16" s="8"/>
-    </row>
-    <row r="17" ht="47.1" customHeight="1"/>
+      <c r="B3" s="13">
+        <v>650000</v>
+      </c>
+      <c r="C3" s="14">
+        <v>40850</v>
+      </c>
+      <c r="D3" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
+        <v>650000</v>
+      </c>
+      <c r="C4" s="14">
+        <v>40864</v>
+      </c>
+      <c r="D4" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13">
+        <v>950000</v>
+      </c>
+      <c r="C5" s="14">
+        <v>40869</v>
+      </c>
+      <c r="D5" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13">
+        <v>730000</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="C7" s="14">
+        <v>40945</v>
+      </c>
+      <c r="D7" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13">
+        <v>1900000</v>
+      </c>
+      <c r="C8" s="14">
+        <v>40918</v>
+      </c>
+      <c r="D8" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1100000</v>
+      </c>
+      <c r="C9" s="14">
+        <v>40919</v>
+      </c>
+      <c r="D9" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13">
+        <v>200000</v>
+      </c>
+      <c r="C10" s="14">
+        <v>40231</v>
+      </c>
+      <c r="D10" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13">
+        <v>400000</v>
+      </c>
+      <c r="C11" s="14">
+        <v>40983</v>
+      </c>
+      <c r="D11" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13">
+        <v>2200000</v>
+      </c>
+      <c r="C12" s="14">
+        <v>40995</v>
+      </c>
+      <c r="D12" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13">
+        <v>820000</v>
+      </c>
+      <c r="C13" s="14">
+        <v>41009</v>
+      </c>
+      <c r="D13" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13">
+        <v>950000</v>
+      </c>
+      <c r="C14" s="14">
+        <v>41011</v>
+      </c>
+      <c r="D14" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13">
+        <v>620000</v>
+      </c>
+      <c r="C15" s="14">
+        <v>41016</v>
+      </c>
+      <c r="D15" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="C16" s="14">
+        <v>41052</v>
+      </c>
+      <c r="D16" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13">
+        <v>1680000</v>
+      </c>
+      <c r="C17" s="14">
+        <v>41101</v>
+      </c>
+      <c r="D17" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13">
+        <v>710000</v>
+      </c>
+      <c r="C18" s="14">
+        <v>41103</v>
+      </c>
+      <c r="D18" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13">
+        <v>319000</v>
+      </c>
+      <c r="C19" s="14">
+        <v>41108</v>
+      </c>
+      <c r="D19" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13">
+        <v>927000</v>
+      </c>
+      <c r="C20" s="14">
+        <v>41114</v>
+      </c>
+      <c r="D20" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13">
+        <v>820000</v>
+      </c>
+      <c r="C21" s="14">
+        <v>41116</v>
+      </c>
+      <c r="D21" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1117500</v>
+      </c>
+      <c r="C22" s="14">
+        <v>41173</v>
+      </c>
+      <c r="D22" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="18"/>
+    </row>
+    <row r="23" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13">
+        <v>2376000</v>
+      </c>
+      <c r="C23" s="14">
+        <v>41177</v>
+      </c>
+      <c r="D23" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13">
+        <v>1381500</v>
+      </c>
+      <c r="C24" s="14">
+        <v>41178</v>
+      </c>
+      <c r="D24" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="18"/>
+    </row>
+    <row r="25" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13">
+        <v>860000</v>
+      </c>
+      <c r="C25" s="14">
+        <v>41241</v>
+      </c>
+      <c r="D25" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="13">
+        <v>630000</v>
+      </c>
+      <c r="C26" s="14">
+        <v>41289</v>
+      </c>
+      <c r="D26" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="13">
+        <v>630000</v>
+      </c>
+      <c r="C27" s="14">
+        <v>41306</v>
+      </c>
+      <c r="D27" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="13">
+        <v>3912300</v>
+      </c>
+      <c r="C28" s="14">
+        <v>41431</v>
+      </c>
+      <c r="D28" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="13">
+        <v>500000</v>
+      </c>
+      <c r="C29" s="14">
+        <v>41461</v>
+      </c>
+      <c r="D29" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="13">
+        <v>6346900</v>
+      </c>
+      <c r="C30" s="14">
+        <v>41723</v>
+      </c>
+      <c r="D30" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="13">
+        <v>4626700</v>
+      </c>
+      <c r="C31" s="14">
+        <v>41723</v>
+      </c>
+      <c r="D31" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="13">
+        <v>1500000</v>
+      </c>
+      <c r="C32" s="14">
+        <v>40679</v>
+      </c>
+      <c r="D32" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="13">
+        <v>500000</v>
+      </c>
+      <c r="C33" s="14">
+        <v>40682</v>
+      </c>
+      <c r="D33" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1500000</v>
+      </c>
+      <c r="C34" s="14">
+        <v>40809</v>
+      </c>
+      <c r="D34" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="18"/>
+    </row>
+    <row r="35" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="13">
+        <v>500000</v>
+      </c>
+      <c r="C35" s="14">
+        <v>40847</v>
+      </c>
+      <c r="D35" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="18"/>
+    </row>
+    <row r="36" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="13">
+        <v>50000</v>
+      </c>
+      <c r="C36" s="14">
+        <v>40890</v>
+      </c>
+      <c r="D36" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="18"/>
+    </row>
+    <row r="37" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="13">
+        <v>500000</v>
+      </c>
+      <c r="C37" s="14">
+        <v>40900</v>
+      </c>
+      <c r="D37" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="18"/>
+    </row>
+    <row r="38" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="13">
+        <v>773600</v>
+      </c>
+      <c r="C38" s="14">
+        <v>40913</v>
+      </c>
+      <c r="D38" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="18"/>
+    </row>
+    <row r="39" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1024000</v>
+      </c>
+      <c r="C39" s="14">
+        <v>40914</v>
+      </c>
+      <c r="D39" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="18"/>
+    </row>
+    <row r="40" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13">
+        <v>122900</v>
+      </c>
+      <c r="C40" s="14">
+        <v>40918</v>
+      </c>
+      <c r="D40" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="18"/>
+    </row>
+    <row r="41" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13">
+        <v>350000</v>
+      </c>
+      <c r="C41" s="14">
+        <v>41340</v>
+      </c>
+      <c r="D41" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="18"/>
+    </row>
+    <row r="42" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="13">
+        <v>1630900</v>
+      </c>
+      <c r="C42" s="14">
+        <v>41358</v>
+      </c>
+      <c r="D42" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="18"/>
+    </row>
+    <row r="43" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="13">
+        <v>300000</v>
+      </c>
+      <c r="C43" s="14">
+        <v>40491</v>
+      </c>
+      <c r="D43" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="18"/>
+    </row>
+    <row r="44" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="13">
+        <v>800000</v>
+      </c>
+      <c r="C44" s="14">
+        <v>40516</v>
+      </c>
+      <c r="D44" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="18"/>
+    </row>
+    <row r="45" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="13">
+        <v>4000000</v>
+      </c>
+      <c r="C45" s="14">
+        <v>40554</v>
+      </c>
+      <c r="D45" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="18"/>
+    </row>
+    <row r="46" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="C46" s="14">
+        <v>40620</v>
+      </c>
+      <c r="D46" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="18"/>
+    </row>
+    <row r="47" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="C47" s="14">
+        <v>40682</v>
+      </c>
+      <c r="D47" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="18"/>
+    </row>
+    <row r="48" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="C48" s="14">
+        <v>40740</v>
+      </c>
+      <c r="D48" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="18"/>
+    </row>
+    <row r="49" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="13">
+        <v>5500000</v>
+      </c>
+      <c r="C49" s="14">
+        <v>40837</v>
+      </c>
+      <c r="D49" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="18"/>
+    </row>
+    <row r="50" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="13">
+        <v>3000000</v>
+      </c>
+      <c r="C50" s="14">
+        <v>41038</v>
+      </c>
+      <c r="D50" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="18"/>
+    </row>
+    <row r="51" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="13">
+        <v>13368400</v>
+      </c>
+      <c r="C51" s="14">
+        <v>41723</v>
+      </c>
+      <c r="D51" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="18"/>
+    </row>
+    <row r="52" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="13">
+        <v>2452800</v>
+      </c>
+      <c r="C52" s="14">
+        <v>42031</v>
+      </c>
+      <c r="D52" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="18"/>
+    </row>
+    <row r="53" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1201200</v>
+      </c>
+      <c r="C53" s="14">
+        <v>41590</v>
+      </c>
+      <c r="D53" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="18"/>
+    </row>
+    <row r="54" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="13">
+        <v>1936500</v>
+      </c>
+      <c r="C54" s="14">
+        <v>41590</v>
+      </c>
+      <c r="D54" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="18"/>
+    </row>
+    <row r="55" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1805800</v>
+      </c>
+      <c r="C55" s="14">
+        <v>41592</v>
+      </c>
+      <c r="D55" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="18"/>
+    </row>
+    <row r="56" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="13">
+        <v>700000</v>
+      </c>
+      <c r="C56" s="14">
+        <v>41635</v>
+      </c>
+      <c r="D56" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="18"/>
+    </row>
+    <row r="57" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="13">
+        <v>1627900</v>
+      </c>
+      <c r="C57" s="14">
+        <v>41661</v>
+      </c>
+      <c r="D57" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="18"/>
+    </row>
+    <row r="58" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="13">
+        <v>1774400</v>
+      </c>
+      <c r="C58" s="14">
+        <v>41661</v>
+      </c>
+      <c r="D58" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="18"/>
+    </row>
+    <row r="59" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="13">
+        <v>2395100</v>
+      </c>
+      <c r="C59" s="14">
+        <v>41661</v>
+      </c>
+      <c r="D59" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="18"/>
+    </row>
+    <row r="60" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A60" s="8">
+        <v>59</v>
+      </c>
+      <c r="B60" s="13">
+        <v>46500</v>
+      </c>
+      <c r="C60" s="14">
+        <v>41665</v>
+      </c>
+      <c r="D60" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="18"/>
+    </row>
+    <row r="61" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A61" s="8">
+        <v>60</v>
+      </c>
+      <c r="B61" s="13">
+        <v>401700</v>
+      </c>
+      <c r="C61" s="14">
+        <v>41723</v>
+      </c>
+      <c r="D61" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="18"/>
+    </row>
+    <row r="62" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A62" s="8">
+        <v>61</v>
+      </c>
+      <c r="B62" s="13">
+        <v>9110900</v>
+      </c>
+      <c r="C62" s="14">
+        <v>41723</v>
+      </c>
+      <c r="D62" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="18"/>
+    </row>
+    <row r="63" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A63" s="8">
+        <v>62</v>
+      </c>
+      <c r="B63" s="13">
+        <v>3222200</v>
+      </c>
+      <c r="C63" s="14">
+        <v>42035</v>
+      </c>
+      <c r="D63" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A64" s="8">
+        <v>63</v>
+      </c>
+      <c r="B64" s="13">
+        <v>1500000</v>
+      </c>
+      <c r="C64" s="14">
+        <v>41499</v>
+      </c>
+      <c r="D64" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A65" s="8">
+        <v>64</v>
+      </c>
+      <c r="B65" s="13">
+        <v>1700000</v>
+      </c>
+      <c r="C65" s="14">
+        <v>41607</v>
+      </c>
+      <c r="D65" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="18"/>
+    </row>
+    <row r="66" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A66" s="8">
+        <v>65</v>
+      </c>
+      <c r="B66" s="13">
+        <v>1063800</v>
+      </c>
+      <c r="C66" s="14">
+        <v>42406</v>
+      </c>
+      <c r="D66" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="18"/>
+    </row>
+    <row r="67" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A67" s="8">
+        <v>66</v>
+      </c>
+      <c r="B67" s="13">
+        <v>229720</v>
+      </c>
+      <c r="C67" s="14">
+        <v>42461</v>
+      </c>
+      <c r="D67" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="18"/>
+    </row>
+    <row r="68" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A68" s="8">
+        <v>67</v>
+      </c>
+      <c r="B68" s="13">
+        <v>1260168</v>
+      </c>
+      <c r="C68" s="14">
+        <v>42406</v>
+      </c>
+      <c r="D68" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="16"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="18"/>
+    </row>
+    <row r="69" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A69" s="8">
+        <v>68</v>
+      </c>
+      <c r="B69" s="13">
+        <v>1344400</v>
+      </c>
+      <c r="C69" s="14">
+        <v>41661</v>
+      </c>
+      <c r="D69" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="18"/>
+    </row>
+    <row r="70" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A70" s="8">
+        <v>69</v>
+      </c>
+      <c r="B70" s="13">
+        <v>500000</v>
+      </c>
+      <c r="C70" s="14">
+        <v>42049</v>
+      </c>
+      <c r="D70" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="18"/>
+    </row>
+    <row r="71" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A71" s="8">
+        <v>70</v>
+      </c>
+      <c r="B71" s="13">
+        <v>4134300</v>
+      </c>
+      <c r="C71" s="14">
+        <v>42370</v>
+      </c>
+      <c r="D71" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="18"/>
+    </row>
+    <row r="72" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A72" s="8">
+        <v>71</v>
+      </c>
+      <c r="B72" s="13">
+        <v>1049404</v>
+      </c>
+      <c r="C72" s="14">
+        <v>42637</v>
+      </c>
+      <c r="D72" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="18"/>
+    </row>
+    <row r="73" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A73" s="8">
+        <v>72</v>
+      </c>
+      <c r="B73" s="13">
+        <v>3153300</v>
+      </c>
+      <c r="C73" s="14">
+        <v>41633</v>
+      </c>
+      <c r="D73" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="16"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="18"/>
+    </row>
+    <row r="74" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A74" s="8">
+        <v>73</v>
+      </c>
+      <c r="B74" s="13">
+        <v>622700</v>
+      </c>
+      <c r="C74" s="14">
+        <v>41634</v>
+      </c>
+      <c r="D74" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="18"/>
+    </row>
+    <row r="75" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A75" s="8">
+        <v>74</v>
+      </c>
+      <c r="B75" s="13">
+        <v>6407100</v>
+      </c>
+      <c r="C75" s="14">
+        <v>41661</v>
+      </c>
+      <c r="D75" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="18"/>
+    </row>
+    <row r="76" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A76" s="8">
+        <v>75</v>
+      </c>
+      <c r="B76" s="13">
+        <v>300000</v>
+      </c>
+      <c r="C76" s="14">
+        <v>41713</v>
+      </c>
+      <c r="D76" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="18"/>
+    </row>
+    <row r="77" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A77" s="8">
+        <v>76</v>
+      </c>
+      <c r="B77" s="13">
+        <v>6407100</v>
+      </c>
+      <c r="C77" s="14">
+        <v>41780</v>
+      </c>
+      <c r="D77" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="18"/>
+    </row>
+    <row r="78" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A78" s="8">
+        <v>77</v>
+      </c>
+      <c r="B78" s="13">
+        <v>300000</v>
+      </c>
+      <c r="C78" s="14">
+        <v>41831</v>
+      </c>
+      <c r="D78" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="18"/>
+    </row>
+    <row r="79" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A79" s="8">
+        <v>78</v>
+      </c>
+      <c r="B79" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="C79" s="14">
+        <v>41864</v>
+      </c>
+      <c r="D79" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="18"/>
+    </row>
+    <row r="80" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A80" s="8">
+        <v>79</v>
+      </c>
+      <c r="B80" s="13">
+        <v>700000</v>
+      </c>
+      <c r="C80" s="14">
+        <v>41878</v>
+      </c>
+      <c r="D80" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="18"/>
+    </row>
+    <row r="81" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A81" s="8">
+        <v>80</v>
+      </c>
+      <c r="B81" s="13">
+        <v>100000</v>
+      </c>
+      <c r="C81" s="14">
+        <v>41913</v>
+      </c>
+      <c r="D81" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="18"/>
+    </row>
+    <row r="82" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A82" s="8">
+        <v>81</v>
+      </c>
+      <c r="B82" s="13">
+        <v>9500</v>
+      </c>
+      <c r="C82" s="14">
+        <v>41962</v>
+      </c>
+      <c r="D82" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="18"/>
+    </row>
+    <row r="83" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A83" s="8">
+        <v>82</v>
+      </c>
+      <c r="B83" s="13">
+        <v>360000</v>
+      </c>
+      <c r="C83" s="14">
+        <v>42048</v>
+      </c>
+      <c r="D83" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="18"/>
+    </row>
+    <row r="84" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A84" s="8">
+        <v>83</v>
+      </c>
+      <c r="B84" s="13">
+        <v>3700000</v>
+      </c>
+      <c r="C84" s="14">
+        <v>42049</v>
+      </c>
+      <c r="D84" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="18"/>
+    </row>
+    <row r="85" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A85" s="8">
+        <v>84</v>
+      </c>
+      <c r="B85" s="13">
+        <v>34000</v>
+      </c>
+      <c r="C85" s="14">
+        <v>42050</v>
+      </c>
+      <c r="D85" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="18"/>
+    </row>
+    <row r="86" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A86" s="8">
+        <v>85</v>
+      </c>
+      <c r="B86" s="13">
+        <v>200000</v>
+      </c>
+      <c r="C86" s="14">
+        <v>42273</v>
+      </c>
+      <c r="D86" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="18"/>
+    </row>
+    <row r="87" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A87" s="8">
+        <v>86</v>
+      </c>
+      <c r="B87" s="13">
+        <v>2410000</v>
+      </c>
+      <c r="C87" s="14">
+        <v>42404</v>
+      </c>
+      <c r="D87" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="18"/>
+    </row>
+    <row r="88" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A88" s="8">
+        <v>87</v>
+      </c>
+      <c r="B88" s="13">
+        <v>650000</v>
+      </c>
+      <c r="C88" s="14">
+        <v>42406</v>
+      </c>
+      <c r="D88" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="18"/>
+    </row>
+    <row r="89" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A89" s="8">
+        <v>88</v>
+      </c>
+      <c r="B89" s="13">
+        <v>60000</v>
+      </c>
+      <c r="C89" s="14">
+        <v>42459</v>
+      </c>
+      <c r="D89" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="18"/>
+    </row>
+    <row r="90" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A90" s="8">
+        <v>89</v>
+      </c>
+      <c r="B90" s="13">
+        <v>1578000</v>
+      </c>
+      <c r="C90" s="14">
+        <v>42474</v>
+      </c>
+      <c r="D90" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="18"/>
+    </row>
+    <row r="91" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A91" s="8">
+        <v>90</v>
+      </c>
+      <c r="B91" s="13">
+        <v>2058100</v>
+      </c>
+      <c r="C91" s="14">
+        <v>42475</v>
+      </c>
+      <c r="D91" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="18"/>
+    </row>
+    <row r="92" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A92" s="8">
+        <v>91</v>
+      </c>
+      <c r="B92" s="13">
+        <v>1017400</v>
+      </c>
+      <c r="C92" s="14">
+        <v>42479</v>
+      </c>
+      <c r="D92" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="18"/>
+    </row>
+    <row r="93" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A93" s="8">
+        <v>92</v>
+      </c>
+      <c r="B93" s="13">
+        <v>870000</v>
+      </c>
+      <c r="C93" s="14">
+        <v>42616</v>
+      </c>
+      <c r="D93" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="18"/>
+    </row>
+    <row r="94" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A94" s="8">
+        <v>93</v>
+      </c>
+      <c r="B94" s="13">
+        <v>120000</v>
+      </c>
+      <c r="C94" s="14">
+        <v>42619</v>
+      </c>
+      <c r="D94" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="18"/>
+    </row>
+    <row r="95" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A95" s="8">
+        <v>94</v>
+      </c>
+      <c r="B95" s="13">
+        <v>880000</v>
+      </c>
+      <c r="C95" s="14">
+        <v>42658</v>
+      </c>
+      <c r="D95" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="18"/>
+    </row>
+    <row r="96" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A96" s="8">
+        <v>95</v>
+      </c>
+      <c r="B96" s="13">
+        <v>1052200</v>
+      </c>
+      <c r="C96" s="14">
+        <v>42678</v>
+      </c>
+      <c r="D96" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="18"/>
+    </row>
+    <row r="97" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A97" s="8">
+        <v>96</v>
+      </c>
+      <c r="B97" s="13">
+        <v>620000</v>
+      </c>
+      <c r="C97" s="14">
+        <v>42683</v>
+      </c>
+      <c r="D97" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="18"/>
+    </row>
+    <row r="98" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A98" s="8">
+        <v>97</v>
+      </c>
+      <c r="B98" s="13">
+        <v>400000</v>
+      </c>
+      <c r="C98" s="14">
+        <v>42697</v>
+      </c>
+      <c r="D98" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="18"/>
+    </row>
+    <row r="99" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A99" s="8">
+        <v>98</v>
+      </c>
+      <c r="B99" s="13">
+        <v>61670900</v>
+      </c>
+      <c r="C99" s="14">
+        <v>42697</v>
+      </c>
+      <c r="D99" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="18"/>
+    </row>
+    <row r="100" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A100" s="8">
+        <v>99</v>
+      </c>
+      <c r="B100" s="13">
+        <v>616300</v>
+      </c>
+      <c r="C100" s="14">
+        <v>41661</v>
+      </c>
+      <c r="D100" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" s="16"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="18"/>
+    </row>
+    <row r="101" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A101" s="8">
+        <v>100</v>
+      </c>
+      <c r="B101" s="13">
+        <v>200000</v>
+      </c>
+      <c r="C101" s="14">
+        <v>41878</v>
+      </c>
+      <c r="D101" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="18"/>
+    </row>
+    <row r="102" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A102" s="8">
+        <v>101</v>
+      </c>
+      <c r="B102" s="13">
+        <v>1800000</v>
+      </c>
+      <c r="C102" s="14">
+        <v>42049</v>
+      </c>
+      <c r="D102" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="18"/>
+    </row>
+    <row r="103" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A103" s="8">
+        <v>102</v>
+      </c>
+      <c r="B103" s="13">
+        <v>500000</v>
+      </c>
+      <c r="C103" s="14">
+        <v>42049</v>
+      </c>
+      <c r="D103" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="18"/>
+    </row>
+    <row r="104" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A104" s="8">
+        <v>103</v>
+      </c>
+      <c r="B104" s="13">
+        <v>1230600</v>
+      </c>
+      <c r="C104" s="14">
+        <v>42043</v>
+      </c>
+      <c r="D104" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="18"/>
+    </row>
+    <row r="105" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A105" s="8">
+        <v>104</v>
+      </c>
+      <c r="B105" s="13">
+        <v>1200000</v>
+      </c>
+      <c r="C105" s="14">
+        <v>42132</v>
+      </c>
+      <c r="D105" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="18"/>
+    </row>
+    <row r="106" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A106" s="8">
+        <v>105</v>
+      </c>
+      <c r="B106" s="13">
+        <v>500000</v>
+      </c>
+      <c r="C106" s="14">
+        <v>42245</v>
+      </c>
+      <c r="D106" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="18"/>
+    </row>
+    <row r="107" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A107" s="8">
+        <v>106</v>
+      </c>
+      <c r="B107" s="13">
+        <v>800000</v>
+      </c>
+      <c r="C107" s="14">
+        <v>42404</v>
+      </c>
+      <c r="D107" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="18"/>
+    </row>
+    <row r="108" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A108" s="8">
+        <v>107</v>
+      </c>
+      <c r="B108" s="13">
+        <v>500000</v>
+      </c>
+      <c r="C108" s="14">
+        <v>42406</v>
+      </c>
+      <c r="D108" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="18"/>
+    </row>
+    <row r="109" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A109" s="8">
+        <v>108</v>
+      </c>
+      <c r="B109" s="13">
+        <v>890000</v>
+      </c>
+      <c r="C109" s="14">
+        <v>42476</v>
+      </c>
+      <c r="D109" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="18"/>
+    </row>
+    <row r="110" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A110" s="8">
+        <v>109</v>
+      </c>
+      <c r="B110" s="13">
+        <v>340000</v>
+      </c>
+      <c r="C110" s="14">
+        <v>42616</v>
+      </c>
+      <c r="D110" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="18"/>
+    </row>
+    <row r="111" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A111" s="8">
+        <v>110</v>
+      </c>
+      <c r="B111" s="13">
+        <v>850700</v>
+      </c>
+      <c r="C111" s="14">
+        <v>42659</v>
+      </c>
+      <c r="D111" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="18"/>
+    </row>
+    <row r="112" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A112" s="8">
+        <v>111</v>
+      </c>
+      <c r="B112" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="C112" s="14">
+        <v>42761</v>
+      </c>
+      <c r="D112" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="18"/>
+    </row>
+    <row r="113" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A113" s="8">
+        <v>112</v>
+      </c>
+      <c r="B113" s="13">
+        <v>200000</v>
+      </c>
+      <c r="C113" s="14">
+        <v>42837</v>
+      </c>
+      <c r="D113" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="18"/>
+    </row>
+    <row r="114" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A114" s="8">
+        <v>113</v>
+      </c>
+      <c r="B114" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="C114" s="14">
+        <v>42929</v>
+      </c>
+      <c r="D114" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="18"/>
+    </row>
+    <row r="115" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A115" s="8">
+        <v>114</v>
+      </c>
+      <c r="B115" s="13">
+        <v>18725600</v>
+      </c>
+      <c r="C115" s="14">
+        <v>42929</v>
+      </c>
+      <c r="D115" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="18"/>
+    </row>
+    <row r="116" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A116" s="8">
+        <v>115</v>
+      </c>
+      <c r="B116" s="13">
+        <v>3500000</v>
+      </c>
+      <c r="C116" s="14">
+        <v>42144</v>
+      </c>
+      <c r="D116" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F116" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="18"/>
+    </row>
+    <row r="117" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A117" s="8">
+        <v>116</v>
+      </c>
+      <c r="B117" s="13">
+        <v>1500000</v>
+      </c>
+      <c r="C117" s="14">
+        <v>42144</v>
+      </c>
+      <c r="D117" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="18"/>
+    </row>
+    <row r="118" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A118" s="8">
+        <v>117</v>
+      </c>
+      <c r="B118" s="13">
+        <v>45000000</v>
+      </c>
+      <c r="C118" s="14">
+        <v>42144</v>
+      </c>
+      <c r="D118" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="18"/>
+    </row>
+    <row r="119" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A119" s="8">
+        <v>118</v>
+      </c>
+      <c r="B119" s="13">
+        <v>20000000</v>
+      </c>
+      <c r="C119" s="14">
+        <v>40885</v>
+      </c>
+      <c r="D119" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="18"/>
+    </row>
+    <row r="120" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A120" s="8">
+        <v>119</v>
+      </c>
+      <c r="B120" s="13">
+        <v>8000000</v>
+      </c>
+      <c r="C120" s="14">
+        <v>40970</v>
+      </c>
+      <c r="D120" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="18"/>
+    </row>
+    <row r="121" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A121" s="8">
+        <v>120</v>
+      </c>
+      <c r="B121" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="C121" s="14">
+        <v>40996</v>
+      </c>
+      <c r="D121" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="18"/>
+    </row>
+    <row r="122" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A122" s="8">
+        <v>121</v>
+      </c>
+      <c r="B122" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="C122" s="14">
+        <v>41041</v>
+      </c>
+      <c r="D122" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="18"/>
+    </row>
+    <row r="123" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A123" s="8">
+        <v>122</v>
+      </c>
+      <c r="B123" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="C123" s="14">
+        <v>41123</v>
+      </c>
+      <c r="D123" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="18"/>
+    </row>
+    <row r="124" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A124" s="8">
+        <v>123</v>
+      </c>
+      <c r="B124" s="13">
+        <v>4000000</v>
+      </c>
+      <c r="C124" s="14">
+        <v>41166</v>
+      </c>
+      <c r="D124" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="18"/>
+    </row>
+    <row r="125" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A125" s="8">
+        <v>124</v>
+      </c>
+      <c r="B125" s="13">
+        <v>5000000</v>
+      </c>
+      <c r="C125" s="14">
+        <v>40529</v>
+      </c>
+      <c r="D125" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="18"/>
+    </row>
+    <row r="126" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A126" s="8">
+        <v>125</v>
+      </c>
+      <c r="B126" s="13">
+        <v>12200000</v>
+      </c>
+      <c r="C126" s="14">
+        <v>40548</v>
+      </c>
+      <c r="D126" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="18"/>
+    </row>
+    <row r="127" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A127" s="8">
+        <v>126</v>
+      </c>
+      <c r="B127" s="13">
+        <v>6800000</v>
+      </c>
+      <c r="C127" s="14">
+        <v>40549</v>
+      </c>
+      <c r="D127" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="18"/>
+    </row>
+    <row r="128" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A128" s="8">
+        <v>127</v>
+      </c>
+      <c r="B128" s="13">
+        <v>3000000</v>
+      </c>
+      <c r="C128" s="14">
+        <v>40550</v>
+      </c>
+      <c r="D128" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="18"/>
+    </row>
+    <row r="129" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A129" s="8">
+        <v>128</v>
+      </c>
+      <c r="B129" s="13">
+        <v>20000000</v>
+      </c>
+      <c r="C129" s="14">
+        <v>40568</v>
+      </c>
+      <c r="D129" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="18"/>
+    </row>
+    <row r="130" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A130" s="8">
+        <v>129</v>
+      </c>
+      <c r="B130" s="13">
+        <v>20000000</v>
+      </c>
+      <c r="C130" s="14">
+        <v>40698</v>
+      </c>
+      <c r="D130" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="18"/>
+    </row>
+    <row r="131" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A131" s="8">
+        <v>130</v>
+      </c>
+      <c r="B131" s="13">
+        <v>5000000</v>
+      </c>
+      <c r="C131" s="14">
+        <v>41503</v>
+      </c>
+      <c r="D131" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="18"/>
+    </row>
+    <row r="132" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A132" s="8">
+        <v>131</v>
+      </c>
+      <c r="B132" s="13">
+        <v>746258.84</v>
+      </c>
+      <c r="C132" s="14">
+        <v>41040</v>
+      </c>
+      <c r="D132" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F132" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" s="16"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="18"/>
+    </row>
+    <row r="133" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A133" s="8">
+        <v>132</v>
+      </c>
+      <c r="B133" s="13">
+        <v>5000000</v>
+      </c>
+      <c r="C133" s="14">
+        <v>41102</v>
+      </c>
+      <c r="D133" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="18"/>
+    </row>
+    <row r="134" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A134" s="8">
+        <v>133</v>
+      </c>
+      <c r="B134" s="13">
+        <v>5000000</v>
+      </c>
+      <c r="C134" s="14">
+        <v>41344</v>
+      </c>
+      <c r="D134" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="18"/>
+    </row>
+    <row r="135" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A135" s="8">
+        <v>134</v>
+      </c>
+      <c r="B135" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="C135" s="14">
+        <v>41360</v>
+      </c>
+      <c r="D135" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="18"/>
+    </row>
+    <row r="136" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A136" s="8">
+        <v>135</v>
+      </c>
+      <c r="B136" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="C136" s="14">
+        <v>41353</v>
+      </c>
+      <c r="D136" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="18"/>
+    </row>
+    <row r="137" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A137" s="8">
+        <v>136</v>
+      </c>
+      <c r="B137" s="13">
+        <v>3000000</v>
+      </c>
+      <c r="C137" s="14">
+        <v>41732</v>
+      </c>
+      <c r="D137" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="18"/>
+    </row>
+    <row r="138" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A138" s="8">
+        <v>137</v>
+      </c>
+      <c r="B138" s="13">
+        <v>5000000</v>
+      </c>
+      <c r="C138" s="14">
+        <v>41376</v>
+      </c>
+      <c r="D138" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="18"/>
+    </row>
+    <row r="139" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A139" s="8">
+        <v>138</v>
+      </c>
+      <c r="B139" s="13">
+        <v>5000000</v>
+      </c>
+      <c r="C139" s="14">
+        <v>41386</v>
+      </c>
+      <c r="D139" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="18"/>
+    </row>
+    <row r="140" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A140" s="8">
+        <v>139</v>
+      </c>
+      <c r="B140" s="13">
+        <v>7000000</v>
+      </c>
+      <c r="C140" s="14">
+        <v>41661</v>
+      </c>
+      <c r="D140" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="18"/>
+    </row>
+    <row r="141" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A141" s="8">
+        <v>140</v>
+      </c>
+      <c r="B141" s="13">
+        <v>370799.37</v>
+      </c>
+      <c r="C141" s="14">
+        <v>41716</v>
+      </c>
+      <c r="D141" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="18"/>
+    </row>
+    <row r="142" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A142" s="8">
+        <v>141</v>
+      </c>
+      <c r="B142" s="13">
+        <v>4600000</v>
+      </c>
+      <c r="C142" s="14">
+        <v>41709</v>
+      </c>
+      <c r="D142" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="12"/>
+      <c r="K142" s="18"/>
+    </row>
+    <row r="143" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A143" s="8">
+        <v>142</v>
+      </c>
+      <c r="B143" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="C143" s="14">
+        <v>41929</v>
+      </c>
+      <c r="D143" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="18"/>
+    </row>
+    <row r="144" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A144" s="8">
+        <v>143</v>
+      </c>
+      <c r="B144" s="13">
+        <v>2000000</v>
+      </c>
+      <c r="C144" s="14">
+        <v>42110</v>
+      </c>
+      <c r="D144" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="18"/>
+    </row>
+    <row r="145" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A145" s="8">
+        <v>144</v>
+      </c>
+      <c r="B145" s="13">
+        <v>279528.3</v>
+      </c>
+      <c r="C145" s="14">
+        <v>42303</v>
+      </c>
+      <c r="D145" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="18"/>
+    </row>
+    <row r="146" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:8">
+      <c r="A146" s="8">
+        <v>145</v>
+      </c>
+      <c r="B146" s="13">
+        <v>49396666.77</v>
+      </c>
+      <c r="C146" s="14">
+        <v>42533</v>
+      </c>
+      <c r="D146" s="14">
+        <v>42978</v>
+      </c>
+      <c r="E146" s="12"/>
+      <c r="F146" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G146" s="16"/>
+      <c r="H146" s="18"/>
+    </row>
+    <row r="147" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:8">
+      <c r="A147" s="8">
+        <v>146</v>
+      </c>
+      <c r="B147" s="13">
+        <v>23000000</v>
+      </c>
+      <c r="C147" s="14">
+        <v>42527</v>
+      </c>
+      <c r="D147" s="14">
+        <v>42978</v>
+      </c>
+      <c r="E147" s="12"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="18"/>
+    </row>
+    <row r="148" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:8">
+      <c r="A148" s="8">
+        <v>147</v>
+      </c>
+      <c r="B148" s="13">
+        <v>40000000</v>
+      </c>
+      <c r="C148" s="14">
+        <v>42524</v>
+      </c>
+      <c r="D148" s="14">
+        <v>42978</v>
+      </c>
+      <c r="E148" s="12"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="18"/>
+    </row>
+    <row r="149" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:8">
+      <c r="A149" s="8">
+        <v>148</v>
+      </c>
+      <c r="B149" s="13">
+        <v>43206866.55</v>
+      </c>
+      <c r="C149" s="14">
+        <v>42524</v>
+      </c>
+      <c r="D149" s="14">
+        <v>42978</v>
+      </c>
+      <c r="E149" s="12"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="18"/>
+    </row>
+    <row r="150" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:8">
+      <c r="A150" s="8">
+        <v>149</v>
+      </c>
+      <c r="B150" s="13">
+        <v>1451947.17</v>
+      </c>
+      <c r="C150" s="14">
+        <v>42528</v>
+      </c>
+      <c r="D150" s="14">
+        <v>42978</v>
+      </c>
+      <c r="E150" s="12"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="18"/>
+    </row>
+    <row r="151" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:8">
+      <c r="A151" s="8">
+        <v>150</v>
+      </c>
+      <c r="B151" s="13">
+        <v>80000000</v>
+      </c>
+      <c r="C151" s="14">
+        <v>41607</v>
+      </c>
+      <c r="D151" s="14">
+        <v>42978</v>
+      </c>
+      <c r="E151" s="12"/>
+      <c r="F151" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G151" s="16"/>
+      <c r="H151" s="18"/>
+    </row>
+    <row r="152" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A152" s="8">
+        <v>151</v>
+      </c>
+      <c r="B152" s="13">
+        <v>32749100</v>
+      </c>
+      <c r="C152" s="14">
+        <v>41725</v>
+      </c>
+      <c r="D152" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F152" s="16"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="18"/>
+    </row>
+    <row r="153" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A153" s="8">
+        <v>152</v>
+      </c>
+      <c r="B153" s="13">
+        <v>106673534</v>
+      </c>
+      <c r="C153" s="14">
+        <v>42004</v>
+      </c>
+      <c r="D153" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="18"/>
+    </row>
+    <row r="154" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A154" s="8">
+        <v>153</v>
+      </c>
+      <c r="B154" s="13">
+        <v>70000000</v>
+      </c>
+      <c r="C154" s="14">
+        <v>42405</v>
+      </c>
+      <c r="D154" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F154" s="16"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="18"/>
+    </row>
+    <row r="155" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A155" s="8">
+        <v>154</v>
+      </c>
+      <c r="B155" s="13">
+        <v>20000000</v>
+      </c>
+      <c r="C155" s="14">
+        <v>42488</v>
+      </c>
+      <c r="D155" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="18"/>
+    </row>
+    <row r="156" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A156" s="8">
+        <v>155</v>
+      </c>
+      <c r="B156" s="13">
+        <v>40000000</v>
+      </c>
+      <c r="C156" s="14">
+        <v>42524</v>
+      </c>
+      <c r="D156" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F156" s="16"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="18"/>
+    </row>
+    <row r="157" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A157" s="8">
+        <v>156</v>
+      </c>
+      <c r="B157" s="13">
+        <v>43206866.55</v>
+      </c>
+      <c r="C157" s="14">
+        <v>42524</v>
+      </c>
+      <c r="D157" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F157" s="16"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="18"/>
+    </row>
+    <row r="158" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A158" s="8">
+        <v>157</v>
+      </c>
+      <c r="B158" s="13">
+        <v>23000000</v>
+      </c>
+      <c r="C158" s="14">
+        <v>42527</v>
+      </c>
+      <c r="D158" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F158" s="16"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="18"/>
+    </row>
+    <row r="159" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A159" s="8">
+        <v>158</v>
+      </c>
+      <c r="B159" s="13">
+        <v>1222227.66</v>
+      </c>
+      <c r="C159" s="14">
+        <v>42528</v>
+      </c>
+      <c r="D159" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F159" s="16"/>
+      <c r="G159" s="16"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="18"/>
+    </row>
+    <row r="160" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A160" s="8">
+        <v>159</v>
+      </c>
+      <c r="B160" s="13">
+        <v>229719.51</v>
+      </c>
+      <c r="C160" s="14">
+        <v>42528</v>
+      </c>
+      <c r="D160" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F160" s="16"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="18"/>
+    </row>
+    <row r="161" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A161" s="8">
+        <v>160</v>
+      </c>
+      <c r="B161" s="13">
+        <v>1260168.34</v>
+      </c>
+      <c r="C161" s="14">
+        <v>42533</v>
+      </c>
+      <c r="D161" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F161" s="16"/>
+      <c r="G161" s="16"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="18"/>
+    </row>
+    <row r="162" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A162" s="8">
+        <v>161</v>
+      </c>
+      <c r="B162" s="13">
+        <v>4263847.32</v>
+      </c>
+      <c r="C162" s="14">
+        <v>42533</v>
+      </c>
+      <c r="D162" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F162" s="16"/>
+      <c r="G162" s="16"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="18"/>
+    </row>
+    <row r="163" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A163" s="8">
+        <v>162</v>
+      </c>
+      <c r="B163" s="13">
+        <v>10387878.6</v>
+      </c>
+      <c r="C163" s="14">
+        <v>42533</v>
+      </c>
+      <c r="D163" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F163" s="16"/>
+      <c r="G163" s="16"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
+      <c r="J163" s="12"/>
+      <c r="K163" s="18"/>
+    </row>
+    <row r="164" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A164" s="8">
+        <v>163</v>
+      </c>
+      <c r="B164" s="13">
+        <v>8451386.06</v>
+      </c>
+      <c r="C164" s="14">
+        <v>42533</v>
+      </c>
+      <c r="D164" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F164" s="16"/>
+      <c r="G164" s="16"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="18"/>
+    </row>
+    <row r="165" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A165" s="8">
+        <v>164</v>
+      </c>
+      <c r="B165" s="13">
+        <v>22580538.44</v>
+      </c>
+      <c r="C165" s="14">
+        <v>42533</v>
+      </c>
+      <c r="D165" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="18"/>
+    </row>
+    <row r="166" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A166" s="8">
+        <v>165</v>
+      </c>
+      <c r="B166" s="13">
+        <v>2452848.01</v>
+      </c>
+      <c r="C166" s="14">
+        <v>42533</v>
+      </c>
+      <c r="D166" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F166" s="16"/>
+      <c r="G166" s="16"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+      <c r="J166" s="12"/>
+      <c r="K166" s="18"/>
+    </row>
+    <row r="167" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A167" s="8">
+        <v>166</v>
+      </c>
+      <c r="B167" s="13">
+        <v>4000000</v>
+      </c>
+      <c r="C167" s="14">
+        <v>40570</v>
+      </c>
+      <c r="D167" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I167" s="12"/>
+      <c r="J167" s="12"/>
+      <c r="K167" s="18"/>
+    </row>
+    <row r="168" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A168" s="8">
+        <v>167</v>
+      </c>
+      <c r="B168" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="C168" s="14">
+        <v>40570</v>
+      </c>
+      <c r="D168" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F168" s="16"/>
+      <c r="G168" s="16"/>
+      <c r="H168" s="16"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="18"/>
+    </row>
+    <row r="169" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A169" s="8">
+        <v>168</v>
+      </c>
+      <c r="B169" s="13">
+        <v>4500000</v>
+      </c>
+      <c r="C169" s="14">
+        <v>40571</v>
+      </c>
+      <c r="D169" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F169" s="16"/>
+      <c r="G169" s="16"/>
+      <c r="H169" s="16"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="12"/>
+      <c r="K169" s="18"/>
+    </row>
+    <row r="170" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A170" s="8">
+        <v>169</v>
+      </c>
+      <c r="B170" s="13">
+        <v>4800000</v>
+      </c>
+      <c r="C170" s="14">
+        <v>40572</v>
+      </c>
+      <c r="D170" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F170" s="16"/>
+      <c r="G170" s="16"/>
+      <c r="H170" s="16"/>
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="18"/>
+    </row>
+    <row r="171" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A171" s="8">
+        <v>170</v>
+      </c>
+      <c r="B171" s="13">
+        <v>2700000</v>
+      </c>
+      <c r="C171" s="14">
+        <v>40573</v>
+      </c>
+      <c r="D171" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F171" s="16"/>
+      <c r="G171" s="16"/>
+      <c r="H171" s="16"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="18"/>
+    </row>
+    <row r="172" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A172" s="8">
+        <v>171</v>
+      </c>
+      <c r="B172" s="13">
+        <v>3000000</v>
+      </c>
+      <c r="C172" s="14">
+        <v>40573</v>
+      </c>
+      <c r="D172" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F172" s="16"/>
+      <c r="G172" s="16"/>
+      <c r="H172" s="16"/>
+      <c r="I172" s="12"/>
+      <c r="J172" s="12"/>
+      <c r="K172" s="18"/>
+    </row>
+    <row r="173" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A173" s="8">
+        <v>172</v>
+      </c>
+      <c r="B173" s="13">
+        <v>20000000</v>
+      </c>
+      <c r="C173" s="14">
+        <v>40837</v>
+      </c>
+      <c r="D173" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F173" s="16"/>
+      <c r="G173" s="16"/>
+      <c r="H173" s="16"/>
+      <c r="I173" s="12"/>
+      <c r="J173" s="12"/>
+      <c r="K173" s="18"/>
+    </row>
+    <row r="174" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A174" s="8">
+        <v>173</v>
+      </c>
+      <c r="B174" s="13">
+        <v>10000000</v>
+      </c>
+      <c r="C174" s="14">
+        <v>40876</v>
+      </c>
+      <c r="D174" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F174" s="16"/>
+      <c r="G174" s="16"/>
+      <c r="H174" s="16"/>
+      <c r="I174" s="12"/>
+      <c r="J174" s="12"/>
+      <c r="K174" s="18"/>
+    </row>
+    <row r="175" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A175" s="8">
+        <v>174</v>
+      </c>
+      <c r="B175" s="13">
+        <v>8000000</v>
+      </c>
+      <c r="C175" s="14">
+        <v>40949</v>
+      </c>
+      <c r="D175" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F175" s="16"/>
+      <c r="G175" s="16"/>
+      <c r="H175" s="16"/>
+      <c r="I175" s="12"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="18"/>
+    </row>
+    <row r="176" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A176" s="8">
+        <v>175</v>
+      </c>
+      <c r="B176" s="13">
+        <v>5978685</v>
+      </c>
+      <c r="C176" s="14">
+        <v>42664</v>
+      </c>
+      <c r="D176" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F176" s="16"/>
+      <c r="G176" s="16"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="12"/>
+      <c r="J176" s="12"/>
+      <c r="K176" s="18"/>
+    </row>
+    <row r="177" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A177" s="8">
+        <v>176</v>
+      </c>
+      <c r="B177" s="13">
+        <v>30000000</v>
+      </c>
+      <c r="C177" s="14">
+        <v>42644</v>
+      </c>
+      <c r="D177" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F177" s="16"/>
+      <c r="G177" s="16"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="12"/>
+      <c r="K177" s="18"/>
+    </row>
+    <row r="178" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:11">
+      <c r="A178" s="8">
+        <v>177</v>
+      </c>
+      <c r="B178" s="13">
+        <v>50000000</v>
+      </c>
+      <c r="C178" s="14">
+        <v>42762</v>
+      </c>
+      <c r="D178" s="14">
+        <v>42978</v>
+      </c>
+      <c r="F178" s="16"/>
+      <c r="G178" s="16"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+      <c r="J178" s="12"/>
+      <c r="K178" s="18"/>
+    </row>
+    <row r="179" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B179" s="13"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="19"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="18"/>
+    </row>
+    <row r="180" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B180" s="13"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="18"/>
+    </row>
+    <row r="181" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B181" s="13"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="18"/>
+    </row>
+    <row r="182" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B182" s="13"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="19"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+      <c r="J182" s="12"/>
+      <c r="K182" s="18"/>
+    </row>
+    <row r="183" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B183" s="13"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="19"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12"/>
+      <c r="J183" s="12"/>
+      <c r="K183" s="18"/>
+    </row>
+    <row r="184" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B184" s="13"/>
+      <c r="C184" s="19"/>
+      <c r="D184" s="19"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="12"/>
+      <c r="K184" s="18"/>
+    </row>
+    <row r="185" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B185" s="13"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="19"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="18"/>
+    </row>
+    <row r="186" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B186" s="13"/>
+      <c r="C186" s="19"/>
+      <c r="D186" s="19"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="18"/>
+    </row>
+    <row r="187" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B187" s="13"/>
+      <c r="C187" s="19"/>
+      <c r="D187" s="19"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="18"/>
+    </row>
+    <row r="188" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B188" s="13"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="19"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+      <c r="J188" s="12"/>
+      <c r="K188" s="18"/>
+    </row>
+    <row r="189" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B189" s="13"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="19"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="18"/>
+    </row>
+    <row r="190" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B190" s="13"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="19"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="12"/>
+      <c r="K190" s="18"/>
+    </row>
+    <row r="191" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B191" s="13"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="19"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="12"/>
+      <c r="K191" s="18"/>
+    </row>
+    <row r="192" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B192" s="13"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="19"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12"/>
+      <c r="J192" s="12"/>
+      <c r="K192" s="18"/>
+    </row>
+    <row r="193" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B193" s="13"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="19"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="12"/>
+      <c r="J193" s="12"/>
+      <c r="K193" s="18"/>
+    </row>
+    <row r="194" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B194" s="13"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="19"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="18"/>
+    </row>
+    <row r="195" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B195" s="13"/>
+      <c r="C195" s="19"/>
+      <c r="D195" s="19"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="12"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="18"/>
+    </row>
+    <row r="196" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B196" s="13"/>
+      <c r="C196" s="19"/>
+      <c r="D196" s="19"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="12"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="18"/>
+    </row>
+    <row r="197" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B197" s="13"/>
+      <c r="C197" s="19"/>
+      <c r="D197" s="19"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="12"/>
+      <c r="J197" s="12"/>
+      <c r="K197" s="18"/>
+    </row>
+    <row r="198" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B198" s="13"/>
+      <c r="C198" s="19"/>
+      <c r="D198" s="19"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="12"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="18"/>
+    </row>
+    <row r="199" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B199" s="13"/>
+      <c r="C199" s="19"/>
+      <c r="D199" s="19"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="12"/>
+      <c r="I199" s="12"/>
+      <c r="J199" s="12"/>
+      <c r="K199" s="18"/>
+    </row>
+    <row r="200" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B200" s="13"/>
+      <c r="C200" s="19"/>
+      <c r="D200" s="19"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="12"/>
+      <c r="J200" s="12"/>
+      <c r="K200" s="18"/>
+    </row>
+    <row r="201" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B201" s="13"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="19"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="18"/>
+    </row>
+    <row r="202" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B202" s="13"/>
+      <c r="C202" s="19"/>
+      <c r="D202" s="19"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="12"/>
+      <c r="I202" s="12"/>
+      <c r="J202" s="12"/>
+      <c r="K202" s="18"/>
+    </row>
+    <row r="203" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B203" s="13"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="19"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="12"/>
+      <c r="J203" s="12"/>
+      <c r="K203" s="18"/>
+    </row>
+    <row r="204" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B204" s="13"/>
+      <c r="C204" s="19"/>
+      <c r="D204" s="19"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="12"/>
+      <c r="I204" s="12"/>
+      <c r="J204" s="12"/>
+      <c r="K204" s="18"/>
+    </row>
+    <row r="205" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B205" s="13"/>
+      <c r="C205" s="19"/>
+      <c r="D205" s="19"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="12"/>
+      <c r="I205" s="12"/>
+      <c r="J205" s="12"/>
+      <c r="K205" s="18"/>
+    </row>
+    <row r="206" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B206" s="13"/>
+      <c r="C206" s="19"/>
+      <c r="D206" s="19"/>
+      <c r="F206" s="12"/>
+      <c r="G206" s="12"/>
+      <c r="H206" s="12"/>
+      <c r="I206" s="12"/>
+      <c r="J206" s="12"/>
+      <c r="K206" s="18"/>
+    </row>
+    <row r="207" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B207" s="13"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="19"/>
+      <c r="F207" s="12"/>
+      <c r="G207" s="12"/>
+      <c r="H207" s="12"/>
+      <c r="I207" s="12"/>
+      <c r="J207" s="12"/>
+      <c r="K207" s="18"/>
+    </row>
+    <row r="208" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B208" s="13"/>
+      <c r="C208" s="19"/>
+      <c r="D208" s="19"/>
+      <c r="F208" s="12"/>
+      <c r="G208" s="12"/>
+      <c r="H208" s="12"/>
+      <c r="I208" s="12"/>
+      <c r="J208" s="12"/>
+      <c r="K208" s="18"/>
+    </row>
+    <row r="209" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B209" s="13"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="19"/>
+      <c r="F209" s="12"/>
+      <c r="G209" s="12"/>
+      <c r="H209" s="12"/>
+      <c r="I209" s="12"/>
+      <c r="J209" s="12"/>
+      <c r="K209" s="18"/>
+    </row>
+    <row r="210" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B210" s="13"/>
+      <c r="C210" s="19"/>
+      <c r="D210" s="19"/>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="12"/>
+      <c r="I210" s="12"/>
+      <c r="J210" s="12"/>
+      <c r="K210" s="18"/>
+    </row>
+    <row r="211" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B211" s="13"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="19"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="12"/>
+      <c r="I211" s="12"/>
+      <c r="J211" s="12"/>
+      <c r="K211" s="18"/>
+    </row>
+    <row r="212" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B212" s="13"/>
+      <c r="C212" s="19"/>
+      <c r="D212" s="19"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="12"/>
+      <c r="I212" s="12"/>
+      <c r="J212" s="12"/>
+      <c r="K212" s="18"/>
+    </row>
+    <row r="213" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B213" s="13"/>
+      <c r="C213" s="19"/>
+      <c r="D213" s="19"/>
+      <c r="F213" s="12"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="12"/>
+      <c r="I213" s="12"/>
+      <c r="J213" s="12"/>
+      <c r="K213" s="18"/>
+    </row>
+    <row r="214" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B214" s="13"/>
+      <c r="C214" s="19"/>
+      <c r="D214" s="19"/>
+      <c r="F214" s="12"/>
+      <c r="G214" s="12"/>
+      <c r="H214" s="12"/>
+      <c r="I214" s="12"/>
+      <c r="J214" s="12"/>
+      <c r="K214" s="18"/>
+    </row>
+    <row r="215" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B215" s="13"/>
+      <c r="C215" s="19"/>
+      <c r="D215" s="19"/>
+      <c r="F215" s="12"/>
+      <c r="G215" s="12"/>
+      <c r="H215" s="12"/>
+      <c r="I215" s="12"/>
+      <c r="J215" s="12"/>
+      <c r="K215" s="18"/>
+    </row>
+    <row r="216" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B216" s="13"/>
+      <c r="C216" s="19"/>
+      <c r="D216" s="19"/>
+      <c r="F216" s="12"/>
+      <c r="G216" s="12"/>
+      <c r="H216" s="12"/>
+      <c r="I216" s="12"/>
+      <c r="J216" s="12"/>
+      <c r="K216" s="18"/>
+    </row>
+    <row r="217" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B217" s="13"/>
+      <c r="C217" s="19"/>
+      <c r="D217" s="19"/>
+      <c r="F217" s="12"/>
+      <c r="G217" s="12"/>
+      <c r="H217" s="12"/>
+      <c r="I217" s="12"/>
+      <c r="J217" s="12"/>
+      <c r="K217" s="18"/>
+    </row>
+    <row r="218" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B218" s="13"/>
+      <c r="C218" s="19"/>
+      <c r="D218" s="19"/>
+      <c r="F218" s="12"/>
+      <c r="G218" s="12"/>
+      <c r="H218" s="12"/>
+      <c r="I218" s="12"/>
+      <c r="J218" s="12"/>
+      <c r="K218" s="18"/>
+    </row>
+    <row r="219" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B219" s="13"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="19"/>
+      <c r="F219" s="12"/>
+      <c r="G219" s="12"/>
+      <c r="H219" s="12"/>
+      <c r="I219" s="12"/>
+      <c r="J219" s="12"/>
+      <c r="K219" s="18"/>
+    </row>
+    <row r="220" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B220" s="13"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="19"/>
+      <c r="F220" s="12"/>
+      <c r="G220" s="12"/>
+      <c r="H220" s="12"/>
+      <c r="I220" s="12"/>
+      <c r="J220" s="12"/>
+      <c r="K220" s="18"/>
+    </row>
+    <row r="221" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B221" s="13"/>
+      <c r="C221" s="19"/>
+      <c r="D221" s="19"/>
+      <c r="F221" s="12"/>
+      <c r="G221" s="12"/>
+      <c r="H221" s="12"/>
+      <c r="I221" s="12"/>
+      <c r="J221" s="12"/>
+      <c r="K221" s="18"/>
+    </row>
+    <row r="222" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B222" s="13"/>
+      <c r="C222" s="19"/>
+      <c r="D222" s="19"/>
+      <c r="F222" s="12"/>
+      <c r="G222" s="12"/>
+      <c r="H222" s="12"/>
+      <c r="I222" s="12"/>
+      <c r="J222" s="12"/>
+      <c r="K222" s="18"/>
+    </row>
+    <row r="223" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B223" s="13"/>
+      <c r="C223" s="19"/>
+      <c r="D223" s="19"/>
+      <c r="F223" s="12"/>
+      <c r="G223" s="12"/>
+      <c r="H223" s="12"/>
+      <c r="I223" s="12"/>
+      <c r="J223" s="12"/>
+      <c r="K223" s="18"/>
+    </row>
+    <row r="224" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B224" s="9"/>
+      <c r="C224" s="10"/>
+      <c r="D224" s="11"/>
+      <c r="F224" s="12"/>
+      <c r="G224" s="12"/>
+      <c r="H224" s="12"/>
+      <c r="I224" s="12"/>
+      <c r="J224" s="12"/>
+      <c r="K224" s="18"/>
+    </row>
+    <row r="225" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B225" s="9"/>
+      <c r="C225" s="10"/>
+      <c r="D225" s="11"/>
+      <c r="F225" s="12"/>
+      <c r="G225" s="12"/>
+      <c r="H225" s="12"/>
+      <c r="I225" s="12"/>
+      <c r="J225" s="12"/>
+      <c r="K225" s="18"/>
+    </row>
+    <row r="226" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B226" s="9"/>
+      <c r="C226" s="10"/>
+      <c r="D226" s="11"/>
+      <c r="F226" s="12"/>
+      <c r="G226" s="12"/>
+      <c r="H226" s="12"/>
+      <c r="I226" s="12"/>
+      <c r="J226" s="12"/>
+      <c r="K226" s="18"/>
+    </row>
+    <row r="227" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B227" s="9"/>
+      <c r="C227" s="10"/>
+      <c r="D227" s="11"/>
+      <c r="F227" s="12"/>
+      <c r="G227" s="12"/>
+      <c r="H227" s="12"/>
+      <c r="I227" s="12"/>
+      <c r="J227" s="12"/>
+      <c r="K227" s="18"/>
+    </row>
+    <row r="228" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B228" s="9"/>
+      <c r="C228" s="10"/>
+      <c r="D228" s="11"/>
+      <c r="F228" s="12"/>
+      <c r="G228" s="12"/>
+      <c r="H228" s="12"/>
+      <c r="I228" s="12"/>
+      <c r="J228" s="12"/>
+      <c r="K228" s="18"/>
+    </row>
+    <row r="229" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B229" s="9"/>
+      <c r="C229" s="10"/>
+      <c r="D229" s="11"/>
+      <c r="F229" s="12"/>
+      <c r="G229" s="12"/>
+      <c r="H229" s="12"/>
+      <c r="I229" s="12"/>
+      <c r="J229" s="12"/>
+      <c r="K229" s="18"/>
+    </row>
+    <row r="230" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B230" s="9"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="11"/>
+      <c r="F230" s="12"/>
+      <c r="G230" s="12"/>
+      <c r="H230" s="12"/>
+      <c r="I230" s="12"/>
+      <c r="J230" s="12"/>
+      <c r="K230" s="18"/>
+    </row>
+    <row r="231" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B231" s="9"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="11"/>
+      <c r="F231" s="12"/>
+      <c r="G231" s="12"/>
+      <c r="H231" s="12"/>
+      <c r="I231" s="12"/>
+      <c r="J231" s="12"/>
+      <c r="K231" s="18"/>
+    </row>
+    <row r="232" s="8" customFormat="1" ht="38.1" customHeight="1" spans="2:11">
+      <c r="B232" s="9"/>
+      <c r="C232" s="10"/>
+      <c r="D232" s="11"/>
+      <c r="F232" s="12"/>
+      <c r="G232" s="12"/>
+      <c r="H232" s="12"/>
+      <c r="I232" s="12"/>
+      <c r="J232" s="12"/>
+      <c r="K232" s="18"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="1.18055555555556" right="0.75" top="0.35416666666666702" bottom="0.39305555555555599" header="0.70763888888888904" footer="0.27500000000000002"/>
+  <mergeCells count="72">
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F179:G179"/>
+    <mergeCell ref="F180:G180"/>
+    <mergeCell ref="F181:G181"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="F183:G183"/>
+    <mergeCell ref="F184:G184"/>
+    <mergeCell ref="F185:G185"/>
+    <mergeCell ref="F186:G186"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="F189:G189"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="F192:G192"/>
+    <mergeCell ref="F193:G193"/>
+    <mergeCell ref="F194:G194"/>
+    <mergeCell ref="F195:G195"/>
+    <mergeCell ref="F196:G196"/>
+    <mergeCell ref="F197:G197"/>
+    <mergeCell ref="F198:G198"/>
+    <mergeCell ref="F199:G199"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="F202:G202"/>
+    <mergeCell ref="F203:G203"/>
+    <mergeCell ref="F204:G204"/>
+    <mergeCell ref="F205:G205"/>
+    <mergeCell ref="F206:G206"/>
+    <mergeCell ref="F207:G207"/>
+    <mergeCell ref="F208:G208"/>
+    <mergeCell ref="F209:G209"/>
+    <mergeCell ref="F210:G210"/>
+    <mergeCell ref="F211:G211"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="F215:G215"/>
+    <mergeCell ref="F216:G216"/>
+    <mergeCell ref="F217:G217"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="F220:G220"/>
+    <mergeCell ref="F221:G221"/>
+    <mergeCell ref="F222:G222"/>
+    <mergeCell ref="F223:G223"/>
+    <mergeCell ref="F224:G224"/>
+    <mergeCell ref="F225:G225"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="F228:G228"/>
+    <mergeCell ref="F229:G229"/>
+    <mergeCell ref="F230:G230"/>
+    <mergeCell ref="F231:G231"/>
+    <mergeCell ref="F232:G232"/>
+    <mergeCell ref="H116:H118"/>
+    <mergeCell ref="H167:H175"/>
+    <mergeCell ref="F43:G51"/>
+    <mergeCell ref="F53:G63"/>
+    <mergeCell ref="F64:G66"/>
+    <mergeCell ref="F69:G71"/>
+    <mergeCell ref="F73:G99"/>
+    <mergeCell ref="F100:G115"/>
+    <mergeCell ref="F2:G31"/>
+    <mergeCell ref="F32:G42"/>
+    <mergeCell ref="F116:G131"/>
+    <mergeCell ref="F132:G145"/>
+    <mergeCell ref="F151:G178"/>
+    <mergeCell ref="F146:G150"/>
+  </mergeCells>
+  <pageMargins left="1.18055555555556" right="0.75" top="0.354166666666667" bottom="0.393055555555556" header="0.707638888888889" footer="0.275"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="11.8796296296296" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="14.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="28.8" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -700,10 +5477,10 @@
         <v>42301</v>
       </c>
       <c r="B2" s="2">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="C2" s="2">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="D2" s="2">
         <v>4.75</v>
@@ -712,10 +5489,10 @@
         <v>4.75</v>
       </c>
       <c r="F2" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="G2" s="1">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -723,10 +5500,10 @@
         <v>42242</v>
       </c>
       <c r="B3" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="C3" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -738,7 +5515,7 @@
         <v>5.15</v>
       </c>
       <c r="G3" s="1">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -746,10 +5523,10 @@
         <v>42183</v>
       </c>
       <c r="B4" s="2">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="C4" s="2">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="D4" s="2">
         <v>5.25</v>
@@ -761,7 +5538,7 @@
         <v>5.4</v>
       </c>
       <c r="G4" s="1">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -769,10 +5546,10 @@
         <v>42135</v>
       </c>
       <c r="B5" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C5" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="D5" s="2">
         <v>5.5</v>
@@ -784,7 +5561,7 @@
         <v>5.65</v>
       </c>
       <c r="G5" s="1">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -807,7 +5584,7 @@
         <v>5.9</v>
       </c>
       <c r="G6" s="1">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -830,7 +5607,7 @@
         <v>6.15</v>
       </c>
       <c r="G7" s="1">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -999,7 +5776,7 @@
         <v>40471</v>
       </c>
       <c r="B15" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C15" s="2">
         <v>5.56</v>
@@ -1022,7 +5799,7 @@
         <v>39805</v>
       </c>
       <c r="B16" s="2">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="C16" s="2">
         <v>5.31</v>
@@ -1156,7 +5933,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/111/数据.xlsx
+++ b/111/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21255" windowHeight="10875"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="18735" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="12" r:id="rId1"/>
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +92,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -107,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -130,13 +136,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -176,11 +193,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,12 +545,12 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E6"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10.625" style="11"/>
+    <col min="2" max="2" width="12.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="11"/>
     <col min="4" max="4" width="12.625" style="11" customWidth="1"/>
     <col min="5" max="5" width="21.25" customWidth="1"/>
@@ -553,57 +573,90 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="38.1" customHeight="1">
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="38.1" customHeight="1" thickBot="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
-        <v>8001234.5</v>
-      </c>
-      <c r="C2" s="13">
-        <v>40436</v>
-      </c>
-      <c r="D2" s="13">
-        <v>41927</v>
+      <c r="B2" s="14">
+        <v>80000000</v>
+      </c>
+      <c r="C2" s="15">
+        <v>41607</v>
+      </c>
+      <c r="D2" s="15">
+        <v>43100</v>
       </c>
       <c r="E2" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" ht="32.1" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="9" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
-        <v>9000000</v>
-      </c>
-      <c r="C3" s="13">
-        <v>40436</v>
-      </c>
-      <c r="D3" s="13">
-        <v>40436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="9"/>
+      <c r="B3" s="14">
+        <v>32749100</v>
+      </c>
+      <c r="C3" s="15">
+        <v>41725</v>
+      </c>
+      <c r="D3" s="15">
+        <v>43100</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>106673534</v>
+      </c>
+      <c r="C4" s="15">
+        <v>42004</v>
+      </c>
+      <c r="D4" s="15">
+        <v>43100</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>70000000</v>
+      </c>
+      <c r="C5" s="15">
+        <v>42405</v>
+      </c>
+      <c r="D5" s="15">
+        <v>43100</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" thickBot="1">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>20000000</v>
+      </c>
+      <c r="C6" s="15">
+        <v>42488</v>
+      </c>
+      <c r="D6" s="15">
+        <v>43100</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="24.95" customHeight="1">
       <c r="A7" s="8"/>
@@ -636,8 +689,8 @@
     <row r="14" spans="1:5" s="10" customFormat="1" ht="24" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:5" ht="33" customHeight="1">
       <c r="A15" s="8"/>
@@ -658,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -715,7 +768,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="G2" s="1">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -738,7 +791,7 @@
         <v>5.15</v>
       </c>
       <c r="G3" s="1">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -761,7 +814,7 @@
         <v>5.4</v>
       </c>
       <c r="G4" s="1">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -784,7 +837,7 @@
         <v>5.65</v>
       </c>
       <c r="G5" s="1">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -807,7 +860,7 @@
         <v>5.9</v>
       </c>
       <c r="G6" s="1">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -830,7 +883,7 @@
         <v>6.15</v>
       </c>
       <c r="G7" s="1">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/111/数据.xlsx
+++ b/111/数据.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="18735" windowHeight="8085"/>
+    <workbookView windowWidth="21828" windowHeight="10524"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="12" r:id="rId1"/>
     <sheet name="config" sheetId="13" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>序号</t>
   </si>
@@ -57,7 +57,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,18 +94,156 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,8 +256,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -139,17 +469,259 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -190,92 +762,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -292,7 +843,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -536,23 +1087,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="12.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.4444444444444" style="11" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="11"/>
-    <col min="4" max="4" width="12.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="12.6296296296296" style="11" customWidth="1"/>
     <col min="5" max="5" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -573,159 +1124,160 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="38.1" customHeight="1" thickBot="1">
+    <row r="2" s="8" customFormat="1" ht="38.1" customHeight="1" spans="1:5">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>80000000</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>41607</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="13">
         <v>43100</v>
       </c>
       <c r="E2" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
+    <row r="3" s="9" customFormat="1" ht="32.1" customHeight="1" spans="1:5">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>32749100</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>41725</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>43100</v>
       </c>
       <c r="E3" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" thickBot="1">
+    <row r="4" ht="24.95" customHeight="1" spans="1:5">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>106673534</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <v>42004</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <v>43100</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1" thickBot="1">
+    <row r="5" ht="24.95" customHeight="1" spans="1:5">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>70000000</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <v>42405</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>43100</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" thickBot="1">
+    <row r="6" ht="24.95" customHeight="1" spans="1:5">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>20000000</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <v>42488</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <v>43100</v>
       </c>
       <c r="E6" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24.95" customHeight="1">
+    <row r="7" ht="24.95" customHeight="1" spans="1:2">
       <c r="A7" s="8"/>
-      <c r="B7" s="12"/>
-    </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1">
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" ht="24.95" customHeight="1" spans="1:2">
       <c r="A8" s="8"/>
-      <c r="B8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" ht="24.95" customHeight="1">
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" ht="24.95" customHeight="1" spans="1:2">
       <c r="A9" s="8"/>
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" spans="1:5" ht="24.95" customHeight="1">
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" ht="24.95" customHeight="1" spans="1:2">
       <c r="A10" s="8"/>
-      <c r="B10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" ht="24.95" customHeight="1">
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" ht="24.95" customHeight="1" spans="1:2">
       <c r="A11" s="8"/>
-      <c r="B11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" ht="24.95" customHeight="1">
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" ht="24.95" customHeight="1" spans="1:2">
       <c r="A12" s="8"/>
-      <c r="B12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" ht="24.95" customHeight="1">
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" ht="24.95" customHeight="1" spans="1:2">
       <c r="A13" s="8"/>
-      <c r="B13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" s="10" customFormat="1" ht="24" customHeight="1">
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" s="10" customFormat="1" ht="24" customHeight="1" spans="1:4">
       <c r="A14" s="8"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" ht="33" customHeight="1">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" ht="33" customHeight="1" spans="1:2">
       <c r="A15" s="8"/>
-      <c r="B15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" ht="51.95" customHeight="1">
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" ht="51.95" customHeight="1" spans="1:1">
       <c r="A16" s="8"/>
     </row>
     <row r="17" ht="47.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="1.18055555555556" right="0.75" top="0.35416666666666702" bottom="0.39305555555555599" header="0.70763888888888904" footer="0.27500000000000002"/>
+  <pageMargins left="1.18055555555556" right="0.75" top="0.354166666666667" bottom="0.393055555555556" header="0.707638888888889" footer="0.275"/>
   <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="11.8796296296296" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="14.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="28.8" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -753,10 +1305,10 @@
         <v>42301</v>
       </c>
       <c r="B2" s="2">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="C2" s="2">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="D2" s="2">
         <v>4.75</v>
@@ -765,7 +1317,7 @@
         <v>4.75</v>
       </c>
       <c r="F2" s="2">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="G2" s="1">
         <v>0.3</v>
@@ -776,10 +1328,10 @@
         <v>42242</v>
       </c>
       <c r="B3" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="C3" s="2">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -799,10 +1351,10 @@
         <v>42183</v>
       </c>
       <c r="B4" s="2">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="C4" s="2">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="D4" s="2">
         <v>5.25</v>
@@ -822,10 +1374,10 @@
         <v>42135</v>
       </c>
       <c r="B5" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C5" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="D5" s="2">
         <v>5.5</v>
@@ -1052,7 +1604,7 @@
         <v>40471</v>
       </c>
       <c r="B15" s="2">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C15" s="2">
         <v>5.56</v>
@@ -1075,7 +1627,7 @@
         <v>39805</v>
       </c>
       <c r="B16" s="2">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="C16" s="2">
         <v>5.31</v>
@@ -1209,7 +1761,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>